--- a/Code/Results/Cases/Case_5_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_183/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9626310369308592</v>
+        <v>1.028382726690068</v>
       </c>
       <c r="D2">
-        <v>0.9886668653317213</v>
+        <v>1.031956381641022</v>
       </c>
       <c r="E2">
-        <v>0.9717025505326101</v>
+        <v>1.028104918743613</v>
       </c>
       <c r="F2">
-        <v>0.9373878623774127</v>
+        <v>1.026932373238568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030769576117298</v>
+        <v>1.031040219857644</v>
       </c>
       <c r="J2">
-        <v>0.9859899374366492</v>
+        <v>1.033535352532168</v>
       </c>
       <c r="K2">
-        <v>1.00028637980606</v>
+        <v>1.034763002514901</v>
       </c>
       <c r="L2">
-        <v>0.9835707165988693</v>
+        <v>1.03092270516103</v>
       </c>
       <c r="M2">
-        <v>0.9497943589845799</v>
+        <v>1.029753576994986</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9741197046967054</v>
+        <v>1.030325156207344</v>
       </c>
       <c r="D3">
-        <v>0.9975400573709011</v>
+        <v>1.033444566559109</v>
       </c>
       <c r="E3">
-        <v>0.9816447563085319</v>
+        <v>1.029806281502341</v>
       </c>
       <c r="F3">
-        <v>0.9521367267359822</v>
+        <v>1.029524038627695</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034760932073159</v>
+        <v>1.031561218825675</v>
       </c>
       <c r="J3">
-        <v>0.9953416490766156</v>
+        <v>1.035113283085584</v>
       </c>
       <c r="K3">
-        <v>1.008204510688724</v>
+        <v>1.036058040677981</v>
       </c>
       <c r="L3">
-        <v>0.9925180111125878</v>
+        <v>1.032429523201192</v>
       </c>
       <c r="M3">
-        <v>0.9634210127105038</v>
+        <v>1.032148041176021</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9811833483245908</v>
+        <v>1.031575916713346</v>
       </c>
       <c r="D4">
-        <v>1.002998958544201</v>
+        <v>1.034402243388289</v>
       </c>
       <c r="E4">
-        <v>0.9877593571912343</v>
+        <v>1.030901306094183</v>
       </c>
       <c r="F4">
-        <v>0.9611880062170053</v>
+        <v>1.031193934884516</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037195021052741</v>
+        <v>1.031894252084095</v>
       </c>
       <c r="J4">
-        <v>1.001080948628347</v>
+        <v>1.036128069497138</v>
       </c>
       <c r="K4">
-        <v>1.01306132303485</v>
+        <v>1.036890255375326</v>
       </c>
       <c r="L4">
-        <v>0.9980077960741711</v>
+        <v>1.033398233619777</v>
       </c>
       <c r="M4">
-        <v>0.9717785839467528</v>
+        <v>1.033690114697445</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9840725915156856</v>
+        <v>1.032100302485043</v>
       </c>
       <c r="D5">
-        <v>1.005232356364963</v>
+        <v>1.03480360995001</v>
       </c>
       <c r="E5">
-        <v>0.9902606757668951</v>
+        <v>1.031360276552743</v>
       </c>
       <c r="F5">
-        <v>0.964887236458749</v>
+        <v>1.031894310293911</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03818575241667</v>
+        <v>1.032033290655612</v>
       </c>
       <c r="J5">
-        <v>1.003425946718123</v>
+        <v>1.036553218528711</v>
       </c>
       <c r="K5">
-        <v>1.015045012812038</v>
+        <v>1.037238760779641</v>
       </c>
       <c r="L5">
-        <v>1.000250493367595</v>
+        <v>1.033803996914007</v>
       </c>
       <c r="M5">
-        <v>0.9751929860047728</v>
+        <v>1.034336697554263</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9845532168572377</v>
+        <v>1.032188265985439</v>
       </c>
       <c r="D6">
-        <v>1.005603906852584</v>
+        <v>1.034870929061682</v>
       </c>
       <c r="E6">
-        <v>0.9906767809865954</v>
+        <v>1.031437259709995</v>
       </c>
       <c r="F6">
-        <v>0.9655024521337245</v>
+        <v>1.032011811068504</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038350270176514</v>
+        <v>1.032056579333374</v>
       </c>
       <c r="J6">
-        <v>1.00381588585945</v>
+        <v>1.036624517657347</v>
       </c>
       <c r="K6">
-        <v>1.015374825721242</v>
+        <v>1.037297197382472</v>
       </c>
       <c r="L6">
-        <v>1.000623399680374</v>
+        <v>1.033872040170093</v>
       </c>
       <c r="M6">
-        <v>0.9757607521484258</v>
+        <v>1.034445162956073</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9812222600595656</v>
+        <v>1.031582929173871</v>
       </c>
       <c r="D7">
-        <v>1.003029035653499</v>
+        <v>1.034407611312612</v>
       </c>
       <c r="E7">
-        <v>0.9877930435948024</v>
+        <v>1.030907444256973</v>
       </c>
       <c r="F7">
-        <v>0.9612378374439015</v>
+        <v>1.031203299751472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03720838355773</v>
+        <v>1.03189611371675</v>
       </c>
       <c r="J7">
-        <v>1.001112540757652</v>
+        <v>1.036133756088438</v>
       </c>
       <c r="K7">
-        <v>1.013088050615052</v>
+        <v>1.036894917427127</v>
       </c>
       <c r="L7">
-        <v>0.9980380114385742</v>
+        <v>1.033403661239287</v>
       </c>
       <c r="M7">
-        <v>0.9718245836818195</v>
+        <v>1.033698761009374</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9665958218229636</v>
+        <v>1.029040466392303</v>
       </c>
       <c r="D8">
-        <v>0.9917281491470212</v>
+        <v>1.032460427482943</v>
       </c>
       <c r="E8">
-        <v>0.975133154110868</v>
+        <v>1.028681134605332</v>
       </c>
       <c r="F8">
-        <v>0.942482067176491</v>
+        <v>1.027809734143545</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032151212267571</v>
+        <v>1.031217146423547</v>
       </c>
       <c r="J8">
-        <v>0.989219467582792</v>
+        <v>1.034069929831923</v>
       </c>
       <c r="K8">
-        <v>1.003021346131679</v>
+        <v>1.035201872853842</v>
       </c>
       <c r="L8">
-        <v>0.9866608417472876</v>
+        <v>1.03143326196043</v>
       </c>
       <c r="M8">
-        <v>0.9545019562034169</v>
+        <v>1.030564336566534</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9375207092744419</v>
+        <v>1.024512010649539</v>
       </c>
       <c r="D9">
-        <v>0.9693075607549898</v>
+        <v>1.02898777636902</v>
       </c>
       <c r="E9">
-        <v>0.9499922893967362</v>
+        <v>1.024711875118401</v>
       </c>
       <c r="F9">
-        <v>0.9049895117027649</v>
+        <v>1.021773441640437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021933945508186</v>
+        <v>1.029988953776024</v>
       </c>
       <c r="J9">
-        <v>0.965490555173467</v>
+        <v>1.030384198110756</v>
       </c>
       <c r="K9">
-        <v>0.982919036116091</v>
+        <v>1.032173399892303</v>
       </c>
       <c r="L9">
-        <v>0.963952394368968</v>
+        <v>1.027911721328044</v>
       </c>
       <c r="M9">
-        <v>0.919838312084708</v>
+        <v>1.024983137572472</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9150576992282725</v>
+        <v>1.021458538040969</v>
       </c>
       <c r="D10">
-        <v>0.9520442931450224</v>
+        <v>1.02664332777225</v>
       </c>
       <c r="E10">
-        <v>0.9306048912318564</v>
+        <v>1.022032857138948</v>
       </c>
       <c r="F10">
-        <v>0.8757457548717932</v>
+        <v>1.017708309824393</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013934927751297</v>
+        <v>1.029148153623308</v>
       </c>
       <c r="J10">
-        <v>0.9470997962636374</v>
+        <v>1.027892378560218</v>
       </c>
       <c r="K10">
-        <v>0.9673369685553551</v>
+        <v>1.030122693147082</v>
       </c>
       <c r="L10">
-        <v>0.9463513184561065</v>
+        <v>1.025529112329011</v>
       </c>
       <c r="M10">
-        <v>0.8927903691995348</v>
+        <v>1.021220561254592</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.904314053425991</v>
+        <v>1.020127711578314</v>
       </c>
       <c r="D11">
-        <v>0.9438102772121674</v>
+        <v>1.025620862726974</v>
       </c>
       <c r="E11">
-        <v>0.9213468645887903</v>
+        <v>1.020864622950147</v>
       </c>
       <c r="F11">
-        <v>0.861645833607909</v>
+        <v>1.015937672331922</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010086775679746</v>
+        <v>1.028778711876489</v>
       </c>
       <c r="J11">
-        <v>0.938290566387191</v>
+        <v>1.026804783745611</v>
       </c>
       <c r="K11">
-        <v>0.9598757867404154</v>
+        <v>1.02922687481471</v>
       </c>
       <c r="L11">
-        <v>0.9379218759397218</v>
+        <v>1.024488757943796</v>
       </c>
       <c r="M11">
-        <v>0.8797518762683875</v>
+        <v>1.019580779263869</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9001349369169596</v>
+        <v>1.01963204376406</v>
       </c>
       <c r="D12">
-        <v>0.940611772245459</v>
+        <v>1.025239947503323</v>
       </c>
       <c r="E12">
-        <v>0.9177485320943363</v>
+        <v>1.020429421781899</v>
       </c>
       <c r="F12">
-        <v>0.8561381416992523</v>
+        <v>1.015278355770071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008586859281919</v>
+        <v>1.028640665187868</v>
       </c>
       <c r="J12">
-        <v>0.9348619635728417</v>
+        <v>1.026399473740668</v>
       </c>
       <c r="K12">
-        <v>0.9569726252708672</v>
+        <v>1.028892921344701</v>
       </c>
       <c r="L12">
-        <v>0.9346415554967482</v>
+        <v>1.024100988773694</v>
       </c>
       <c r="M12">
-        <v>0.8746598972223139</v>
+        <v>1.01897004916031</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9010406193240276</v>
+        <v>1.019738427457443</v>
       </c>
       <c r="D13">
-        <v>0.9413047234826143</v>
+        <v>1.025321706544415</v>
       </c>
       <c r="E13">
-        <v>0.9185282052469104</v>
+        <v>1.02052283180804</v>
       </c>
       <c r="F13">
-        <v>0.857332905631905</v>
+        <v>1.015419855815476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008912046242702</v>
+        <v>1.028670313967416</v>
       </c>
       <c r="J13">
-        <v>0.9356050842515505</v>
+        <v>1.026486474794945</v>
       </c>
       <c r="K13">
-        <v>0.9576018190672825</v>
+        <v>1.028964610547932</v>
       </c>
       <c r="L13">
-        <v>0.9353525113948766</v>
+        <v>1.024184227532332</v>
       </c>
       <c r="M13">
-        <v>0.8757644185486632</v>
+        <v>1.019101128046595</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9039727046874908</v>
+        <v>1.020086767081912</v>
       </c>
       <c r="D14">
-        <v>0.9435489293815931</v>
+        <v>1.025589399298964</v>
       </c>
       <c r="E14">
-        <v>0.921052891037881</v>
+        <v>1.020828675135185</v>
       </c>
       <c r="F14">
-        <v>0.8611964729078219</v>
+        <v>1.015883206473769</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00996432205915</v>
+        <v>1.028767317688402</v>
       </c>
       <c r="J14">
-        <v>0.9380105581811979</v>
+        <v>1.02677130800013</v>
       </c>
       <c r="K14">
-        <v>0.9596386723937698</v>
+        <v>1.029199294892947</v>
       </c>
       <c r="L14">
-        <v>0.9376539666309047</v>
+        <v>1.024456732253611</v>
       </c>
       <c r="M14">
-        <v>0.8793364056960195</v>
+        <v>1.019530329944396</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9057529973430571</v>
+        <v>1.020301211910651</v>
       </c>
       <c r="D15">
-        <v>0.9449121634526536</v>
+        <v>1.025754183534658</v>
       </c>
       <c r="E15">
-        <v>0.9225862212197896</v>
+        <v>1.021016946365465</v>
       </c>
       <c r="F15">
-        <v>0.8635391315464301</v>
+        <v>1.016168475258108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010602854577959</v>
+        <v>1.028826975892427</v>
       </c>
       <c r="J15">
-        <v>0.9394708535209874</v>
+        <v>1.026946626030518</v>
       </c>
       <c r="K15">
-        <v>0.9608753017309138</v>
+        <v>1.029343730938973</v>
       </c>
       <c r="L15">
-        <v>0.9390511843418023</v>
+        <v>1.024624453482798</v>
       </c>
       <c r="M15">
-        <v>0.8815024332814811</v>
+        <v>1.019794556136921</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9157465301262258</v>
+        <v>1.021546674941731</v>
       </c>
       <c r="D16">
-        <v>0.9525727523430371</v>
+        <v>1.026711029079981</v>
       </c>
       <c r="E16">
-        <v>0.9311988196248185</v>
+        <v>1.022110213241758</v>
       </c>
       <c r="F16">
-        <v>0.8766470444721205</v>
+        <v>1.017825596880881</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014181225537159</v>
+        <v>1.029172558031801</v>
       </c>
       <c r="J16">
-        <v>0.9476643381514307</v>
+        <v>1.027964374157586</v>
       </c>
       <c r="K16">
-        <v>0.9678152024677559</v>
+        <v>1.030181977962747</v>
       </c>
       <c r="L16">
-        <v>0.9468915698607634</v>
+        <v>1.025597971791251</v>
       </c>
       <c r="M16">
-        <v>0.8936239158667587</v>
+        <v>1.021329160968484</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9217214422396119</v>
+        <v>1.022325576679331</v>
       </c>
       <c r="D17">
-        <v>0.9571591705515647</v>
+        <v>1.027309257450311</v>
       </c>
       <c r="E17">
-        <v>0.9363522062296105</v>
+        <v>1.022793770502555</v>
       </c>
       <c r="F17">
-        <v>0.8844519850694066</v>
+        <v>1.018862237401202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016315193185388</v>
+        <v>1.029387885970067</v>
       </c>
       <c r="J17">
-        <v>0.9525597252145025</v>
+        <v>1.028600449105458</v>
       </c>
       <c r="K17">
-        <v>0.9719625000241047</v>
+        <v>1.030705667613679</v>
       </c>
       <c r="L17">
-        <v>0.9515765084632948</v>
+        <v>1.026206290206441</v>
       </c>
       <c r="M17">
-        <v>0.9008425671779018</v>
+        <v>1.022288911694161</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9251113108309676</v>
+        <v>1.022779064742774</v>
       </c>
       <c r="D18">
-        <v>0.959763262995983</v>
+        <v>1.027657491255012</v>
       </c>
       <c r="E18">
-        <v>0.9392772558053692</v>
+        <v>1.023191688920832</v>
       </c>
       <c r="F18">
-        <v>0.8888703122593442</v>
+        <v>1.019465892055272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01752384823012</v>
+        <v>1.029512965892232</v>
       </c>
       <c r="J18">
-        <v>0.9553359184725286</v>
+        <v>1.028970631418185</v>
       </c>
       <c r="K18">
-        <v>0.974314664245293</v>
+        <v>1.031010371515885</v>
       </c>
       <c r="L18">
-        <v>0.9542334758284896</v>
+        <v>1.026560277864123</v>
       </c>
       <c r="M18">
-        <v>0.9049291921259247</v>
+        <v>1.022847702800694</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9262519110647932</v>
+        <v>1.022933552496067</v>
       </c>
       <c r="D19">
-        <v>0.9606397832310732</v>
+        <v>1.027776111663344</v>
       </c>
       <c r="E19">
-        <v>0.9402616559604619</v>
+        <v>1.023327236037993</v>
       </c>
       <c r="F19">
-        <v>0.8903554355946184</v>
+        <v>1.019671554811429</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017930172293869</v>
+        <v>1.029555527568042</v>
       </c>
       <c r="J19">
-        <v>0.9562698271110031</v>
+        <v>1.029096714343712</v>
       </c>
       <c r="K19">
-        <v>0.9751059575394643</v>
+        <v>1.031114140364525</v>
       </c>
       <c r="L19">
-        <v>0.955127291972524</v>
+        <v>1.026680837999662</v>
       </c>
       <c r="M19">
-        <v>0.9063028380127247</v>
+        <v>1.023038065580387</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9210904556031323</v>
+        <v>1.022242094251393</v>
       </c>
       <c r="D20">
-        <v>0.9566746035879298</v>
+        <v>1.027245146097292</v>
       </c>
       <c r="E20">
-        <v>0.9358078402760385</v>
+        <v>1.022720513133791</v>
       </c>
       <c r="F20">
-        <v>0.8836287961697028</v>
+        <v>1.018751119566556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016090045949251</v>
+        <v>1.029364836910874</v>
       </c>
       <c r="J20">
-        <v>0.9520428686403599</v>
+        <v>1.028532290318682</v>
       </c>
       <c r="K20">
-        <v>0.9715246022460836</v>
+        <v>1.030649559003193</v>
       </c>
       <c r="L20">
-        <v>0.9510818571814417</v>
+        <v>1.026141109916578</v>
       </c>
       <c r="M20">
-        <v>0.9000811903023016</v>
+        <v>1.022186044933655</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9031148339939379</v>
+        <v>1.019984227046583</v>
       </c>
       <c r="D21">
-        <v>0.9428921894768314</v>
+        <v>1.025510601778107</v>
       </c>
       <c r="E21">
-        <v>0.9203141317649017</v>
+        <v>1.020738647155386</v>
       </c>
       <c r="F21">
-        <v>0.8600667564151723</v>
+        <v>1.015746806536324</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656526767692</v>
+        <v>1.028738775238941</v>
       </c>
       <c r="J21">
-        <v>0.9373068163578632</v>
+        <v>1.026687468677798</v>
       </c>
       <c r="K21">
-        <v>0.9590427490767796</v>
+        <v>1.029130219735514</v>
       </c>
       <c r="L21">
-        <v>0.936980641271825</v>
+        <v>1.024376523530688</v>
       </c>
       <c r="M21">
-        <v>0.8782919111358197</v>
+        <v>1.019403986461453</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8906935541877636</v>
+        <v>1.018556845553122</v>
       </c>
       <c r="D22">
-        <v>0.9333953991352029</v>
+        <v>1.024413494438553</v>
       </c>
       <c r="E22">
-        <v>0.9096256800999449</v>
+        <v>1.019485221330257</v>
       </c>
       <c r="F22">
-        <v>0.843642924808003</v>
+        <v>1.013848455577009</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005193023972452</v>
+        <v>1.028340397064731</v>
       </c>
       <c r="J22">
-        <v>0.9271125255348823</v>
+        <v>1.025519850498669</v>
       </c>
       <c r="K22">
-        <v>0.9504127854520259</v>
+        <v>1.028167955501564</v>
       </c>
       <c r="L22">
-        <v>0.9272285095471251</v>
+        <v>1.023259316095616</v>
       </c>
       <c r="M22">
-        <v>0.863110933009245</v>
+        <v>1.017645267233159</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8974002148350931</v>
+        <v>1.019314277503414</v>
       </c>
       <c r="D23">
-        <v>0.9385201349741438</v>
+        <v>1.024995720621448</v>
       </c>
       <c r="E23">
-        <v>0.9153947901448034</v>
+        <v>1.020150394360884</v>
       </c>
       <c r="F23">
-        <v>0.8525265378640369</v>
+        <v>1.014855720324384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007604535261551</v>
+        <v>1.028552039314348</v>
       </c>
       <c r="J23">
-        <v>0.9326178164204675</v>
+        <v>1.026139568821822</v>
       </c>
       <c r="K23">
-        <v>0.9550726745602265</v>
+        <v>1.028678742366845</v>
       </c>
       <c r="L23">
-        <v>0.9324946354860215</v>
+        <v>1.023852313861153</v>
       </c>
       <c r="M23">
-        <v>0.8713213164869571</v>
+        <v>1.018578519526368</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9213758629571591</v>
+        <v>1.022279818936753</v>
       </c>
       <c r="D24">
-        <v>0.9568937763752323</v>
+        <v>1.02727411742821</v>
       </c>
       <c r="E24">
-        <v>0.9360540635005281</v>
+        <v>1.022753617421858</v>
       </c>
       <c r="F24">
-        <v>0.8840011705534472</v>
+        <v>1.018801332020944</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016191890798392</v>
+        <v>1.029375253386271</v>
       </c>
       <c r="J24">
-        <v>0.9522766565539061</v>
+        <v>1.028563090902105</v>
       </c>
       <c r="K24">
-        <v>0.9717226743570925</v>
+        <v>1.030674914402184</v>
       </c>
       <c r="L24">
-        <v>0.9513056006931294</v>
+        <v>1.026170564660129</v>
       </c>
       <c r="M24">
-        <v>0.9004256030938486</v>
+        <v>1.02223252912944</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9455038186231672</v>
+        <v>1.025688655906901</v>
       </c>
       <c r="D25">
-        <v>0.9754561827162872</v>
+        <v>1.029890603266122</v>
       </c>
       <c r="E25">
-        <v>0.9568907735382788</v>
+        <v>1.025743681221349</v>
       </c>
       <c r="F25">
-        <v>0.9153181483625437</v>
+        <v>1.023340958592643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024757229012188</v>
+        <v>1.030310301287518</v>
       </c>
       <c r="J25">
-        <v>0.972015468293208</v>
+        <v>1.031343030326792</v>
       </c>
       <c r="K25">
-        <v>0.9884478466182575</v>
+        <v>1.032961820654317</v>
       </c>
       <c r="L25">
-        <v>0.9701973222565364</v>
+        <v>1.028828153701717</v>
       </c>
       <c r="M25">
-        <v>0.92939058333222</v>
+        <v>1.026433164878064</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_183/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028382726690068</v>
+        <v>0.9626310369308632</v>
       </c>
       <c r="D2">
-        <v>1.031956381641022</v>
+        <v>0.9886668653317248</v>
       </c>
       <c r="E2">
-        <v>1.028104918743613</v>
+        <v>0.9717025505326139</v>
       </c>
       <c r="F2">
-        <v>1.026932373238568</v>
+        <v>0.9373878623774166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031040219857644</v>
+        <v>1.0307695761173</v>
       </c>
       <c r="J2">
-        <v>1.033535352532168</v>
+        <v>0.9859899374366531</v>
       </c>
       <c r="K2">
-        <v>1.034763002514901</v>
+        <v>1.000286379806064</v>
       </c>
       <c r="L2">
-        <v>1.03092270516103</v>
+        <v>0.983570716598873</v>
       </c>
       <c r="M2">
-        <v>1.029753576994986</v>
+        <v>0.9497943589845839</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030325156207344</v>
+        <v>0.9741197046967066</v>
       </c>
       <c r="D3">
-        <v>1.033444566559109</v>
+        <v>0.9975400573709022</v>
       </c>
       <c r="E3">
-        <v>1.029806281502341</v>
+        <v>0.9816447563085329</v>
       </c>
       <c r="F3">
-        <v>1.029524038627695</v>
+        <v>0.952136726735984</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031561218825675</v>
+        <v>1.034760932073159</v>
       </c>
       <c r="J3">
-        <v>1.035113283085584</v>
+        <v>0.9953416490766169</v>
       </c>
       <c r="K3">
-        <v>1.036058040677981</v>
+        <v>1.008204510688726</v>
       </c>
       <c r="L3">
-        <v>1.032429523201192</v>
+        <v>0.9925180111125887</v>
       </c>
       <c r="M3">
-        <v>1.032148041176021</v>
+        <v>0.9634210127105053</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031575916713346</v>
+        <v>0.9811833483245926</v>
       </c>
       <c r="D4">
-        <v>1.034402243388289</v>
+        <v>1.002998958544203</v>
       </c>
       <c r="E4">
-        <v>1.030901306094183</v>
+        <v>0.9877593571912359</v>
       </c>
       <c r="F4">
-        <v>1.031193934884516</v>
+        <v>0.961188006217008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031894252084095</v>
+        <v>1.037195021052742</v>
       </c>
       <c r="J4">
-        <v>1.036128069497138</v>
+        <v>1.001080948628349</v>
       </c>
       <c r="K4">
-        <v>1.036890255375326</v>
+        <v>1.013061323034851</v>
       </c>
       <c r="L4">
-        <v>1.033398233619777</v>
+        <v>0.9980077960741727</v>
       </c>
       <c r="M4">
-        <v>1.033690114697445</v>
+        <v>0.9717785839467554</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032100302485043</v>
+        <v>0.9840725915156846</v>
       </c>
       <c r="D5">
-        <v>1.03480360995001</v>
+        <v>1.005232356364962</v>
       </c>
       <c r="E5">
-        <v>1.031360276552743</v>
+        <v>0.9902606757668947</v>
       </c>
       <c r="F5">
-        <v>1.031894310293911</v>
+        <v>0.964887236458748</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032033290655612</v>
+        <v>1.038185752416669</v>
       </c>
       <c r="J5">
-        <v>1.036553218528711</v>
+        <v>1.003425946718122</v>
       </c>
       <c r="K5">
-        <v>1.037238760779641</v>
+        <v>1.015045012812036</v>
       </c>
       <c r="L5">
-        <v>1.033803996914007</v>
+        <v>1.000250493367594</v>
       </c>
       <c r="M5">
-        <v>1.034336697554263</v>
+        <v>0.9751929860047717</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032188265985439</v>
+        <v>0.984553216857236</v>
       </c>
       <c r="D6">
-        <v>1.034870929061682</v>
+        <v>1.005603906852583</v>
       </c>
       <c r="E6">
-        <v>1.031437259709995</v>
+        <v>0.990676780986594</v>
       </c>
       <c r="F6">
-        <v>1.032011811068504</v>
+        <v>0.9655024521337231</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032056579333374</v>
+        <v>1.038350270176513</v>
       </c>
       <c r="J6">
-        <v>1.036624517657347</v>
+        <v>1.003815885859449</v>
       </c>
       <c r="K6">
-        <v>1.037297197382472</v>
+        <v>1.01537482572124</v>
       </c>
       <c r="L6">
-        <v>1.033872040170093</v>
+        <v>1.000623399680372</v>
       </c>
       <c r="M6">
-        <v>1.034445162956073</v>
+        <v>0.9757607521484245</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031582929173871</v>
+        <v>0.9812222600595645</v>
       </c>
       <c r="D7">
-        <v>1.034407611312612</v>
+        <v>1.003029035653498</v>
       </c>
       <c r="E7">
-        <v>1.030907444256973</v>
+        <v>0.9877930435948012</v>
       </c>
       <c r="F7">
-        <v>1.031203299751472</v>
+        <v>0.9612378374439006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03189611371675</v>
+        <v>1.03720838355773</v>
       </c>
       <c r="J7">
-        <v>1.036133756088438</v>
+        <v>1.001112540757651</v>
       </c>
       <c r="K7">
-        <v>1.036894917427127</v>
+        <v>1.013088050615051</v>
       </c>
       <c r="L7">
-        <v>1.033403661239287</v>
+        <v>0.9980380114385732</v>
       </c>
       <c r="M7">
-        <v>1.033698761009374</v>
+        <v>0.9718245836818187</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029040466392303</v>
+        <v>0.9665958218229643</v>
       </c>
       <c r="D8">
-        <v>1.032460427482943</v>
+        <v>0.9917281491470218</v>
       </c>
       <c r="E8">
-        <v>1.028681134605332</v>
+        <v>0.9751331541108689</v>
       </c>
       <c r="F8">
-        <v>1.027809734143545</v>
+        <v>0.942482067176492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031217146423547</v>
+        <v>1.032151212267572</v>
       </c>
       <c r="J8">
-        <v>1.034069929831923</v>
+        <v>0.9892194675827927</v>
       </c>
       <c r="K8">
-        <v>1.035201872853842</v>
+        <v>1.003021346131679</v>
       </c>
       <c r="L8">
-        <v>1.03143326196043</v>
+        <v>0.9866608417472885</v>
       </c>
       <c r="M8">
-        <v>1.030564336566534</v>
+        <v>0.9545019562034177</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024512010649539</v>
+        <v>0.9375207092744422</v>
       </c>
       <c r="D9">
-        <v>1.02898777636902</v>
+        <v>0.9693075607549899</v>
       </c>
       <c r="E9">
-        <v>1.024711875118401</v>
+        <v>0.9499922893967364</v>
       </c>
       <c r="F9">
-        <v>1.021773441640437</v>
+        <v>0.9049895117027653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029988953776024</v>
+        <v>1.021933945508185</v>
       </c>
       <c r="J9">
-        <v>1.030384198110756</v>
+        <v>0.9654905551734673</v>
       </c>
       <c r="K9">
-        <v>1.032173399892303</v>
+        <v>0.9829190361160911</v>
       </c>
       <c r="L9">
-        <v>1.027911721328044</v>
+        <v>0.9639523943689678</v>
       </c>
       <c r="M9">
-        <v>1.024983137572472</v>
+        <v>0.9198383120847085</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021458538040969</v>
+        <v>0.915057699228272</v>
       </c>
       <c r="D10">
-        <v>1.02664332777225</v>
+        <v>0.9520442931450218</v>
       </c>
       <c r="E10">
-        <v>1.022032857138948</v>
+        <v>0.9306048912318561</v>
       </c>
       <c r="F10">
-        <v>1.017708309824393</v>
+        <v>0.8757457548717924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029148153623308</v>
+        <v>1.013934927751297</v>
       </c>
       <c r="J10">
-        <v>1.027892378560218</v>
+        <v>0.9470997962636369</v>
       </c>
       <c r="K10">
-        <v>1.030122693147082</v>
+        <v>0.9673369685553548</v>
       </c>
       <c r="L10">
-        <v>1.025529112329011</v>
+        <v>0.946351318456106</v>
       </c>
       <c r="M10">
-        <v>1.021220561254592</v>
+        <v>0.892790369199534</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020127711578314</v>
+        <v>0.9043140534259881</v>
       </c>
       <c r="D11">
-        <v>1.025620862726974</v>
+        <v>0.9438102772121646</v>
       </c>
       <c r="E11">
-        <v>1.020864622950147</v>
+        <v>0.9213468645887878</v>
       </c>
       <c r="F11">
-        <v>1.015937672331922</v>
+        <v>0.8616458336079051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028778711876489</v>
+        <v>1.010086775679745</v>
       </c>
       <c r="J11">
-        <v>1.026804783745611</v>
+        <v>0.938290566387188</v>
       </c>
       <c r="K11">
-        <v>1.02922687481471</v>
+        <v>0.9598757867404127</v>
       </c>
       <c r="L11">
-        <v>1.024488757943796</v>
+        <v>0.937921875939719</v>
       </c>
       <c r="M11">
-        <v>1.019580779263869</v>
+        <v>0.8797518762683837</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01963204376406</v>
+        <v>0.9001349369169596</v>
       </c>
       <c r="D12">
-        <v>1.025239947503323</v>
+        <v>0.9406117722454593</v>
       </c>
       <c r="E12">
-        <v>1.020429421781899</v>
+        <v>0.9177485320943362</v>
       </c>
       <c r="F12">
-        <v>1.015278355770071</v>
+        <v>0.8561381416992525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028640665187868</v>
+        <v>1.008586859281919</v>
       </c>
       <c r="J12">
-        <v>1.026399473740668</v>
+        <v>0.9348619635728419</v>
       </c>
       <c r="K12">
-        <v>1.028892921344701</v>
+        <v>0.9569726252708672</v>
       </c>
       <c r="L12">
-        <v>1.024100988773694</v>
+        <v>0.9346415554967481</v>
       </c>
       <c r="M12">
-        <v>1.01897004916031</v>
+        <v>0.874659897222314</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019738427457443</v>
+        <v>0.901040619324028</v>
       </c>
       <c r="D13">
-        <v>1.025321706544415</v>
+        <v>0.9413047234826146</v>
       </c>
       <c r="E13">
-        <v>1.02052283180804</v>
+        <v>0.918528205246911</v>
       </c>
       <c r="F13">
-        <v>1.015419855815476</v>
+        <v>0.8573329056319052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028670313967416</v>
+        <v>1.008912046242702</v>
       </c>
       <c r="J13">
-        <v>1.026486474794945</v>
+        <v>0.9356050842515509</v>
       </c>
       <c r="K13">
-        <v>1.028964610547932</v>
+        <v>0.9576018190672827</v>
       </c>
       <c r="L13">
-        <v>1.024184227532332</v>
+        <v>0.9353525113948772</v>
       </c>
       <c r="M13">
-        <v>1.019101128046595</v>
+        <v>0.8757644185486632</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020086767081912</v>
+        <v>0.9039727046874941</v>
       </c>
       <c r="D14">
-        <v>1.025589399298964</v>
+        <v>0.9435489293815954</v>
       </c>
       <c r="E14">
-        <v>1.020828675135185</v>
+        <v>0.9210528910378835</v>
       </c>
       <c r="F14">
-        <v>1.015883206473769</v>
+        <v>0.8611964729078249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028767317688402</v>
+        <v>1.009964322059151</v>
       </c>
       <c r="J14">
-        <v>1.02677130800013</v>
+        <v>0.9380105581812008</v>
       </c>
       <c r="K14">
-        <v>1.029199294892947</v>
+        <v>0.9596386723937721</v>
       </c>
       <c r="L14">
-        <v>1.024456732253611</v>
+        <v>0.9376539666309071</v>
       </c>
       <c r="M14">
-        <v>1.019530329944396</v>
+        <v>0.8793364056960223</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020301211910651</v>
+        <v>0.9057529973430565</v>
       </c>
       <c r="D15">
-        <v>1.025754183534658</v>
+        <v>0.9449121634526532</v>
       </c>
       <c r="E15">
-        <v>1.021016946365465</v>
+        <v>0.9225862212197889</v>
       </c>
       <c r="F15">
-        <v>1.016168475258108</v>
+        <v>0.8635391315464297</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028826975892427</v>
+        <v>1.010602854577959</v>
       </c>
       <c r="J15">
-        <v>1.026946626030518</v>
+        <v>0.9394708535209865</v>
       </c>
       <c r="K15">
-        <v>1.029343730938973</v>
+        <v>0.9608753017309134</v>
       </c>
       <c r="L15">
-        <v>1.024624453482798</v>
+        <v>0.9390511843418015</v>
       </c>
       <c r="M15">
-        <v>1.019794556136921</v>
+        <v>0.8815024332814806</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021546674941731</v>
+        <v>0.9157465301262271</v>
       </c>
       <c r="D16">
-        <v>1.026711029079981</v>
+        <v>0.9525727523430386</v>
       </c>
       <c r="E16">
-        <v>1.022110213241758</v>
+        <v>0.9311988196248198</v>
       </c>
       <c r="F16">
-        <v>1.017825596880881</v>
+        <v>0.8766470444721219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029172558031801</v>
+        <v>1.01418122553716</v>
       </c>
       <c r="J16">
-        <v>1.027964374157586</v>
+        <v>0.9476643381514324</v>
       </c>
       <c r="K16">
-        <v>1.030181977962747</v>
+        <v>0.9678152024677571</v>
       </c>
       <c r="L16">
-        <v>1.025597971791251</v>
+        <v>0.9468915698607643</v>
       </c>
       <c r="M16">
-        <v>1.021329160968484</v>
+        <v>0.8936239158667603</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022325576679331</v>
+        <v>0.9217214422396111</v>
       </c>
       <c r="D17">
-        <v>1.027309257450311</v>
+        <v>0.957159170551564</v>
       </c>
       <c r="E17">
-        <v>1.022793770502555</v>
+        <v>0.9363522062296097</v>
       </c>
       <c r="F17">
-        <v>1.018862237401202</v>
+        <v>0.8844519850694059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029387885970067</v>
+        <v>1.016315193185388</v>
       </c>
       <c r="J17">
-        <v>1.028600449105458</v>
+        <v>0.9525597252145017</v>
       </c>
       <c r="K17">
-        <v>1.030705667613679</v>
+        <v>0.971962500024104</v>
       </c>
       <c r="L17">
-        <v>1.026206290206441</v>
+        <v>0.9515765084632939</v>
       </c>
       <c r="M17">
-        <v>1.022288911694161</v>
+        <v>0.9008425671779009</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022779064742774</v>
+        <v>0.9251113108309654</v>
       </c>
       <c r="D18">
-        <v>1.027657491255012</v>
+        <v>0.9597632629959809</v>
       </c>
       <c r="E18">
-        <v>1.023191688920832</v>
+        <v>0.939277255805367</v>
       </c>
       <c r="F18">
-        <v>1.019465892055272</v>
+        <v>0.8888703122593417</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029512965892232</v>
+        <v>1.017523848230119</v>
       </c>
       <c r="J18">
-        <v>1.028970631418185</v>
+        <v>0.9553359184725264</v>
       </c>
       <c r="K18">
-        <v>1.031010371515885</v>
+        <v>0.974314664245291</v>
       </c>
       <c r="L18">
-        <v>1.026560277864123</v>
+        <v>0.9542334758284874</v>
       </c>
       <c r="M18">
-        <v>1.022847702800694</v>
+        <v>0.9049291921259222</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>1.022933552496067</v>
+        <v>0.9262519110647907</v>
       </c>
       <c r="D19">
-        <v>1.027776111663344</v>
+        <v>0.960639783231071</v>
       </c>
       <c r="E19">
-        <v>1.023327236037993</v>
+        <v>0.9402616559604594</v>
       </c>
       <c r="F19">
-        <v>1.019671554811429</v>
+        <v>0.8903554355946155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029555527568042</v>
+        <v>1.017930172293868</v>
       </c>
       <c r="J19">
-        <v>1.029096714343712</v>
+        <v>0.9562698271110007</v>
       </c>
       <c r="K19">
-        <v>1.031114140364525</v>
+        <v>0.9751059575394622</v>
       </c>
       <c r="L19">
-        <v>1.026680837999662</v>
+        <v>0.9551272919725216</v>
       </c>
       <c r="M19">
-        <v>1.023038065580387</v>
+        <v>0.9063028380127214</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022242094251393</v>
+        <v>0.9210904556031335</v>
       </c>
       <c r="D20">
-        <v>1.027245146097292</v>
+        <v>0.9566746035879304</v>
       </c>
       <c r="E20">
-        <v>1.022720513133791</v>
+        <v>0.9358078402760391</v>
       </c>
       <c r="F20">
-        <v>1.018751119566556</v>
+        <v>0.8836287961697044</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029364836910874</v>
+        <v>1.016090045949251</v>
       </c>
       <c r="J20">
-        <v>1.028532290318682</v>
+        <v>0.9520428686403609</v>
       </c>
       <c r="K20">
-        <v>1.030649559003193</v>
+        <v>0.9715246022460846</v>
       </c>
       <c r="L20">
-        <v>1.026141109916578</v>
+        <v>0.9510818571814423</v>
       </c>
       <c r="M20">
-        <v>1.022186044933655</v>
+        <v>0.900081190302303</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019984227046583</v>
+        <v>0.9031148339939377</v>
       </c>
       <c r="D21">
-        <v>1.025510601778107</v>
+        <v>0.9428921894768313</v>
       </c>
       <c r="E21">
-        <v>1.020738647155386</v>
+        <v>0.920314131764901</v>
       </c>
       <c r="F21">
-        <v>1.015746806536324</v>
+        <v>0.8600667564151717</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028738775238941</v>
+        <v>1.009656526767692</v>
       </c>
       <c r="J21">
-        <v>1.026687468677798</v>
+        <v>0.9373068163578627</v>
       </c>
       <c r="K21">
-        <v>1.029130219735514</v>
+        <v>0.9590427490767794</v>
       </c>
       <c r="L21">
-        <v>1.024376523530688</v>
+        <v>0.9369806412718242</v>
       </c>
       <c r="M21">
-        <v>1.019403986461453</v>
+        <v>0.8782919111358191</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018556845553122</v>
+        <v>0.8906935541877629</v>
       </c>
       <c r="D22">
-        <v>1.024413494438553</v>
+        <v>0.9333953991352024</v>
       </c>
       <c r="E22">
-        <v>1.019485221330257</v>
+        <v>0.909625680099944</v>
       </c>
       <c r="F22">
-        <v>1.013848455577009</v>
+        <v>0.8436429248080023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028340397064731</v>
+        <v>1.005193023972452</v>
       </c>
       <c r="J22">
-        <v>1.025519850498669</v>
+        <v>0.9271125255348817</v>
       </c>
       <c r="K22">
-        <v>1.028167955501564</v>
+        <v>0.9504127854520256</v>
       </c>
       <c r="L22">
-        <v>1.023259316095616</v>
+        <v>0.9272285095471243</v>
       </c>
       <c r="M22">
-        <v>1.017645267233159</v>
+        <v>0.8631109330092445</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019314277503414</v>
+        <v>0.8974002148350928</v>
       </c>
       <c r="D23">
-        <v>1.024995720621448</v>
+        <v>0.9385201349741433</v>
       </c>
       <c r="E23">
-        <v>1.020150394360884</v>
+        <v>0.9153947901448034</v>
       </c>
       <c r="F23">
-        <v>1.014855720324384</v>
+        <v>0.8525265378640372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028552039314348</v>
+        <v>1.007604535261551</v>
       </c>
       <c r="J23">
-        <v>1.026139568821822</v>
+        <v>0.9326178164204673</v>
       </c>
       <c r="K23">
-        <v>1.028678742366845</v>
+        <v>0.9550726745602262</v>
       </c>
       <c r="L23">
-        <v>1.023852313861153</v>
+        <v>0.9324946354860214</v>
       </c>
       <c r="M23">
-        <v>1.018578519526368</v>
+        <v>0.8713213164869574</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022279818936753</v>
+        <v>0.9213758629571592</v>
       </c>
       <c r="D24">
-        <v>1.02727411742821</v>
+        <v>0.9568937763752323</v>
       </c>
       <c r="E24">
-        <v>1.022753617421858</v>
+        <v>0.9360540635005278</v>
       </c>
       <c r="F24">
-        <v>1.018801332020944</v>
+        <v>0.8840011705534473</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029375253386271</v>
+        <v>1.016191890798392</v>
       </c>
       <c r="J24">
-        <v>1.028563090902105</v>
+        <v>0.9522766565539063</v>
       </c>
       <c r="K24">
-        <v>1.030674914402184</v>
+        <v>0.9717226743570925</v>
       </c>
       <c r="L24">
-        <v>1.026170564660129</v>
+        <v>0.9513056006931292</v>
       </c>
       <c r="M24">
-        <v>1.02223252912944</v>
+        <v>0.9004256030938486</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025688655906901</v>
+        <v>0.9455038186231658</v>
       </c>
       <c r="D25">
-        <v>1.029890603266122</v>
+        <v>0.9754561827162859</v>
       </c>
       <c r="E25">
-        <v>1.025743681221349</v>
+        <v>0.9568907735382773</v>
       </c>
       <c r="F25">
-        <v>1.023340958592643</v>
+        <v>0.9153181483625423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030310301287518</v>
+        <v>1.024757229012187</v>
       </c>
       <c r="J25">
-        <v>1.031343030326792</v>
+        <v>0.9720154682932067</v>
       </c>
       <c r="K25">
-        <v>1.032961820654317</v>
+        <v>0.9884478466182564</v>
       </c>
       <c r="L25">
-        <v>1.028828153701717</v>
+        <v>0.9701973222565349</v>
       </c>
       <c r="M25">
-        <v>1.026433164878064</v>
+        <v>0.9293905833322186</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
